--- a/Class12/Class12Capstone/Test Cases/GUI Specific Tests and Results/TCGUI.xlsx
+++ b/Class12/Class12Capstone/Test Cases/GUI Specific Tests and Results/TCGUI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
   <si>
     <t>AC1: Able to add new veteranian</t>
   </si>
@@ -798,6 +798,9 @@
   </si>
   <si>
     <t>Bug Magnet/manual</t>
+  </si>
+  <si>
+    <t>AC1TC1 for web end result                  AC1TC1JSON for API result in JSON view</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1478,7 +1481,9 @@
         <v>31</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>

--- a/Class12/Class12Capstone/Test Cases/GUI Specific Tests and Results/TCGUI.xlsx
+++ b/Class12/Class12Capstone/Test Cases/GUI Specific Tests and Results/TCGUI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10800" windowHeight="18195"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="16215" windowHeight="18195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
   <si>
     <t>AC1: Able to add new veteranian</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Google chrome browser is installed and opened on windows surface</t>
   </si>
   <si>
-    <t>User is able to login successfully as vet_admin</t>
-  </si>
-  <si>
     <t>User knows how to navigate the website and add new veteranian</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     </r>
   </si>
   <si>
-    <t>The Spring Pet Clinic website is open and connected to the server with internet</t>
-  </si>
-  <si>
     <t>Test Data  / Script</t>
   </si>
   <si>
@@ -594,6 +588,12 @@
     <t>6. Click on 'Save Vet' button</t>
   </si>
   <si>
+    <t>7. Click on 'Add Vet' button</t>
+  </si>
+  <si>
+    <t>8. Cick on browser's new tab and enter Spiring  Pet Clinic vets API website</t>
+  </si>
+  <si>
     <t>Input more than 30 characters for First Name</t>
   </si>
   <si>
@@ -777,6 +777,112 @@
     <t>10. Press Enter key on keyboard</t>
   </si>
   <si>
+    <t>11. Copy paste Form Reset script in the console input area to reset all input for the next iteration</t>
+  </si>
+  <si>
+    <t>12. Press Enter key on the keyboard</t>
+  </si>
+  <si>
+    <t>13. Copy paste Script under AC1TC4 in the console input area</t>
+  </si>
+  <si>
+    <t>Input less than 2 characters for First and Last name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14. Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name data for firstName.value</t>
+    </r>
+  </si>
+  <si>
+    <t>15. Enter Last Name data for lastName.valu</t>
+  </si>
+  <si>
+    <t>16. Press Enter key on keyboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays error message under First Name input box: First name must be at least 2 characters long. Input Validation Icon remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               Displays error message under Last Name input box: Last name must be less at least 2 characters long. Input Validation Icon remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                 Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                                         Displays Web error status 400 in the Console Input area </t>
+    </r>
+  </si>
+  <si>
+    <t>17. Click 'Add Vet' button</t>
+  </si>
+  <si>
+    <t>18. Copy paste Form Reset script in the console input area to reset all input for the next iteration</t>
+  </si>
+  <si>
+    <t>19. Press Enter key on the keyboard</t>
+  </si>
+  <si>
+    <t>20. Copy paste Script under AC1TC4 in the console input area</t>
+  </si>
+  <si>
+    <t>Input more than 30 characters for First name and less than 2 characters for Last name</t>
+  </si>
+  <si>
+    <t>21. Input First Name data for firstName.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.zyxwvutsrqponmlkjihgfedcbaabcde                                   2.abcdefghijklmnopqrstuvwxyzabcde                                  3.mnbvcxzlkjhgfdsaapoiuytrewqmnbvc         </t>
+  </si>
+  <si>
+    <t>22. Input Last Name data for lastName.value</t>
+  </si>
+  <si>
+    <t>23. Press Enter on keyboard</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Displays error message under First Name input box: First name must be less than 30 characters long. Input Validation Icon remains </t>
     </r>
@@ -789,6 +895,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                              Displays error message under Last Name input box: Last name must be less at least 2 characters long. Input Validation Icon remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>X</t>
     </r>
     <r>
@@ -799,6 +926,140 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">                                                                                 Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                          Displays Web error status 400 in the Console Input area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays error messages: Error in 1 or more fields.                                                                                                      Displays error message under the First Name input box: First Name is required, and under the Last Name input box: Last Name is required. All Validation Icons remain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                 Will not save the new Veterinarian data</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Copy paste Script under AC1TC6 to console input area</t>
+  </si>
+  <si>
+    <t>Open AC1devToolScriptText.txt for Console input</t>
+  </si>
+  <si>
+    <t>1. Nemo                                     2. Alexander                               3. Li</t>
+  </si>
+  <si>
+    <t>9. Press Enter on keyboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displayed No error message under the First Name input box. Validation Icon changed to (check mark) ✔                                                                                                                    Displays error message under Last Name input box: Last name required. Input Validation Icon remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                               Displays Web error status 400 in the Console Input area</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Copy paste Script under AC1TC7 to console input area</t>
+  </si>
+  <si>
+    <t>8. Enter Last Name data for lastName.value</t>
+  </si>
+  <si>
+    <t>1. Garfield                                    2. De Great                                3. Bo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displayed No error message under the First Name input box. Validation Icon changed to (check mark) ✔                                                                                                                    Displays error message under Last Name input box: Last name required. Input Validation Icon remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                                 Displays Web error status 400 in the Console Input area</t>
+    </r>
+  </si>
+  <si>
+    <t>The Spring Pet Clinic website is opened and connected to the server</t>
+  </si>
+  <si>
+    <t>User has the right credential as vet_admin</t>
+  </si>
+  <si>
+    <t>Testers know how to use Bug Magnet and JSON view</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays error message under First Name input box: First name must be less than 30 characters long. Input Validation Icon remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">                                                                        Displays error message under Last Name input box: Last name must be less than 30 characters long. Input Validation Icon remains </t>
     </r>
     <r>
@@ -820,275 +1081,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                                 Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                                  Displays Web error status 400 in the Console Input area</t>
-    </r>
-  </si>
-  <si>
-    <t>11. Copy paste Form Reset script in the console input area to reset all input for the next iteration</t>
-  </si>
-  <si>
-    <t>AC1devToolScriptText.txt for Console input</t>
-  </si>
-  <si>
-    <t>12. Press Enter key on the keyboard</t>
-  </si>
-  <si>
-    <t>13. Copy paste Script under AC1TC4 in the console input area</t>
-  </si>
-  <si>
-    <t>Input less than 2 characters for First and Last name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>First Name data for firstName.value</t>
-    </r>
-  </si>
-  <si>
-    <t>16. Press Enter key on keyboard</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Displays error message under First Name input box: First name must be at least 2 characters long. Input Validation Icon remains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                               Displays error message under Last Name input box: Last name must be less at least 2 characters long. Input Validation Icon remains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                 Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                                         Displays Web error status 400 in the Console Input area </t>
-    </r>
-  </si>
-  <si>
-    <t>17. Click 'Add Vet' button</t>
-  </si>
-  <si>
-    <t>18. Copy paste Form Reset script in the console input area to reset all input for the next iteration</t>
-  </si>
-  <si>
-    <t>ACd1evToolScriptText.txt for Console input</t>
-  </si>
-  <si>
-    <t>19. Press Enter key on the keyboard</t>
-  </si>
-  <si>
-    <t>20. Copy paste Script under AC1TC4 in the console input area</t>
-  </si>
-  <si>
-    <t>Input more than 30 characters for First name and less than 2 characters for Last name</t>
-  </si>
-  <si>
-    <t>21. Input First Name data for firstName.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.zyxwvutsrqponmlkjihgfedcbaabcde                                   2.abcdefghijklmnopqrstuvwxyzabcde                                  3.mnbvcxzlkjhgfdsaapoiuytrewqmnbvc         </t>
-  </si>
-  <si>
-    <t>22. Input Last Name data for lastName.value</t>
-  </si>
-  <si>
-    <t>23. Press Enter on keyboard</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Displays error message under First Name input box: First name must be less than 30 characters long. Input Validation Icon remains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                              Displays error message under Last Name input box: Last name must be less at least 2 characters long. Input Validation Icon remains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                 Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                          Displays Web error status 400 in the Console Input area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Displays error messages: Error in 1 or more fields.                                                                                                      Displays error message under the First Name input box: First Name is required, and under the Last Name input box: Last Name is required. All Validation Icons remain </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                 Will not save the new Veterinarian data</t>
-    </r>
-  </si>
-  <si>
-    <t>7. Copy paste Script under AC1TC6 to console input area</t>
-  </si>
-  <si>
-    <t>Open AC1devToolScriptText.txt for Console input</t>
-  </si>
-  <si>
-    <t>1. Nemo                                     2. Alexander                               3. Li</t>
-  </si>
-  <si>
-    <t>9. Press Enter on keyboard</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Displayed No error message under the First Name input box. Validation Icon changed to (check mark) ✔                                                                                                                    Displays error message under Last Name input box: Last name required. Input Validation Icon remains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                               Displays Web error status 400 in the Console Input area</t>
-    </r>
-  </si>
-  <si>
-    <t>7. Copy paste Script under AC1TC7 to console input area</t>
-  </si>
-  <si>
-    <t>Open ACdevToolScriptText.txt for Console input</t>
-  </si>
-  <si>
-    <t>8. Enter Last Name data for lastName.value</t>
-  </si>
-  <si>
-    <t>1. Garfield                                    2. De Great                                3. Bo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Displayed No error message under the First Name input box. Validation Icon changed to (check mark) ✔                                                                                                                    Displays error message under Last Name input box: Last name required. Input Validation Icon remains </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                                 Displays Web error status 400 in the Console Input area</t>
-    </r>
-  </si>
-  <si>
-    <t>15. Enter Last Name data for lastName.value</t>
-  </si>
-  <si>
-    <t>Testers know how to use Bug Magnet and JSON view</t>
-  </si>
-  <si>
-    <t>7. Cick on browser's new tab and enter Spiring  Pet Clinic vets API website</t>
+      <t xml:space="preserve">                                                                           Displays error message on Web page: Error in 1 or more fields. Will not save the new Veterinarian data                                                                                                                                  Displays Web error status 400 in the Console Input area</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1231,7 +1225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1280,6 +1274,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1288,7 +1306,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,11 +1357,71 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1640,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1673,74 +1751,74 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" thickBot="1">
       <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1748,14 +1826,14 @@
     </row>
     <row r="14" spans="1:7" ht="30.75" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1764,11 +1842,11 @@
     <row r="15" spans="1:7" ht="60.75" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1777,13 +1855,13 @@
     <row r="16" spans="1:7" ht="60.75" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1792,13 +1870,13 @@
     <row r="17" spans="1:7" ht="60.75" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1807,567 +1885,541 @@
     <row r="18" spans="1:7" ht="45.75" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="165.75" thickBot="1">
+      <c r="A24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="D24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="165.75" thickBot="1">
-      <c r="A23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="D30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="165.75" thickBot="1">
-      <c r="A34" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="60.75" thickBot="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A37" s="3"/>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="165.75" thickBot="1">
+      <c r="A37" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A38" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A39" s="26"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="60.75" thickBot="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A43" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="120.75" thickBot="1">
+      <c r="A52" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="120.75" thickBot="1">
-      <c r="A47" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" ht="120.75" thickBot="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" ht="120.75" thickBot="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="270.75" thickBot="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A54" s="25"/>
+      <c r="B54" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A53" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" ht="270.75" thickBot="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A55" s="26"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A56" s="27"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" ht="60.75" thickBot="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2375,285 +2427,273 @@
     <row r="58" spans="1:7" ht="30.75" thickBot="1">
       <c r="A58" s="3"/>
       <c r="B58" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" ht="45.75" thickBot="1">
       <c r="A59" s="3"/>
       <c r="B59" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" ht="120.75" thickBot="1">
+    <row r="60" spans="1:7" ht="45.75" thickBot="1">
       <c r="A60" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="45.75" thickBot="1">
       <c r="A61" s="3"/>
       <c r="B61" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" ht="285.75" thickBot="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="60.75" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" ht="270.75" thickBot="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" ht="30.75" thickBot="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" ht="30.75" thickBot="1">
+      <c r="B65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="45.75" thickBot="1">
       <c r="A66" s="3"/>
       <c r="B66" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="120.75" thickBot="1">
+      <c r="A67" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" ht="165.75" thickBot="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A69" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" ht="165.75" thickBot="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A78" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D78" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" ht="60.75" thickBot="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" ht="270.75" thickBot="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="45.75" thickBot="1">
-      <c r="A78" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2661,14 +2701,14 @@
     </row>
     <row r="79" spans="1:7" ht="30.75" thickBot="1">
       <c r="A79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -2677,11 +2717,11 @@
     <row r="80" spans="1:7" ht="60.75" thickBot="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2690,13 +2730,13 @@
     <row r="81" spans="1:7" ht="15.75" thickBot="1">
       <c r="A81" s="3"/>
       <c r="B81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -2705,11 +2745,11 @@
     <row r="82" spans="1:7" ht="15.75" thickBot="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -2718,7 +2758,7 @@
     <row r="83" spans="1:7" ht="30.75" thickBot="1">
       <c r="A83" s="3"/>
       <c r="B83" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2729,10 +2769,10 @@
     <row r="84" spans="1:7" ht="45.75" thickBot="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="3"/>
@@ -2742,32 +2782,236 @@
     <row r="85" spans="1:7" ht="45.75" thickBot="1">
       <c r="A85" s="3"/>
       <c r="B85" s="14" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="6"/>
       <c r="F85" s="7"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" ht="270.75" thickBot="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="14" t="s">
+    <row r="86" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A86" s="28"/>
+      <c r="B86" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="37"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A87" s="29"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="23"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A88" s="30"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="C95" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" ht="45.75" thickBot="1">
+      <c r="A96" s="3"/>
+      <c r="B96" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A97" s="28"/>
+      <c r="B97" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="28"/>
+      <c r="D97" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="37"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="22"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A98" s="29"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="23"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A99" s="30"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId2"/>
+    <hyperlink ref="C59" r:id="rId3"/>
+    <hyperlink ref="C51" r:id="rId4"/>
+    <hyperlink ref="C64" r:id="rId5"/>
+    <hyperlink ref="C66" r:id="rId6"/>
+    <hyperlink ref="C84" r:id="rId7"/>
+    <hyperlink ref="C95" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
